--- a/00_data_raw/Belaege_Gewichtung_Szenario2.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario2.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29F02A8E-1508-4758-974C-035BA79BCFAE}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54166659-775F-4EFA-BCA4-7134DE128FA3}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-1350" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35670" yWindow="1380" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
     <sheet name="Begründung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>group_id</t>
   </si>
@@ -39,9 +52,6 @@
   </si>
   <si>
     <t>within_group_weight</t>
-  </si>
-  <si>
-    <t>total_weight</t>
   </si>
   <si>
     <t>umweltbelastung</t>
@@ -201,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -209,10 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -228,6 +234,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,7 +540,7 @@
     <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7265625" customWidth="1"/>
     <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,287 +560,252 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G2">
-        <v>0.21</v>
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G3">
-        <v>0.14000000000000001</v>
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G4">
-        <v>0.06</v>
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G5">
-        <v>4.4999999999999998E-2</v>
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
-        <v>4.4999999999999998E-2</v>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G7">
-        <v>0.03</v>
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
-        <v>0.03</v>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G9">
-        <v>0.02</v>
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G10">
-        <v>0.02</v>
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G11">
-        <v>0.16</v>
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G12">
-        <v>0.12</v>
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F13" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G13">
-        <v>0.12</v>
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AB53B4-2FBE-46B8-B527-F1B1CE8FDF72}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/00_data_raw/Belaege_Gewichtung_Szenario2.xlsx
+++ b/00_data_raw/Belaege_Gewichtung_Szenario2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zhaw-my.sharepoint.com/personal/pfeifsar_students_zhaw_ch/Documents/6. Semester MSc UnR/Thesis/R_Project/00_data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54166659-775F-4EFA-BCA4-7134DE128FA3}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{72486D78-DEF3-48B5-ABEC-3983F2E8BA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADE2289-9618-4D90-B215-A3E3A07C07BF}"/>
   <bookViews>
-    <workbookView xWindow="-35670" yWindow="1380" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21765" yWindow="225" windowWidth="19125" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gewichtung" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>group_id</t>
   </si>
@@ -96,9 +96,6 @@
     <t>befahrbarkeit</t>
   </si>
   <si>
-    <t>barrierefreiheit</t>
-  </si>
-  <si>
     <t>recyclingfaehigkeit</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>Befahrbarkeit</t>
-  </si>
-  <si>
-    <t>Barrierefreiheit</t>
   </si>
   <si>
     <t>Recyclingfähigkeit</t>
@@ -234,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +569,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -596,10 +586,10 @@
         <v>0.45</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -610,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -619,7 +609,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -630,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0.05</v>
@@ -639,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>0.25</v>
@@ -650,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>0.05</v>
@@ -659,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>0.25</v>
@@ -679,10 +669,11 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -699,10 +690,11 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <f t="shared" ref="F8:F9" si="0">1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -719,30 +711,32 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -756,13 +750,13 @@
         <v>0.45</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <f>1/3</f>
+        <f t="shared" ref="F11:F12" si="1">1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -777,34 +771,13 @@
         <v>0.45</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F13" si="0">1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>0.45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -828,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
